--- a/Lesson 1/stroopdata.xlsx
+++ b/Lesson 1/stroopdata.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="7290" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="7290" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="2" r:id="rId1"/>
     <sheet name="Plan2" sheetId="3" r:id="rId2"/>
     <sheet name="Plan3" sheetId="4" r:id="rId3"/>
-    <sheet name="Plan4" sheetId="5" r:id="rId4"/>
-    <sheet name="Plan5" sheetId="6" r:id="rId5"/>
+    <sheet name="Plan5" sheetId="6" r:id="rId4"/>
+    <sheet name="Plan4" sheetId="5" r:id="rId5"/>
     <sheet name="stroopdata" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="stroopdata" localSheetId="5">stroopdata!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -728,7 +728,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -820,8 +819,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="334696944"/>
-        <c:axId val="334686864"/>
+        <c:axId val="238330128"/>
+        <c:axId val="238330688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -909,11 +908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334693584"/>
-        <c:axId val="334699184"/>
+        <c:axId val="238331808"/>
+        <c:axId val="238331248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334696944"/>
+        <c:axId val="238330128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,14 +934,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334686864"/>
+        <c:crossAx val="238330688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334686864"/>
+        <c:axId val="238330688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,19 +970,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334696944"/>
+        <c:crossAx val="238330128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334699184"/>
+        <c:axId val="238331248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,12 +991,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334693584"/>
+        <c:crossAx val="238331808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="334693584"/>
+        <c:axId val="238331808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1006,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334699184"/>
+        <c:crossAx val="238331248"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1018,7 +1016,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1034,220 +1031,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Histograma</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Freqüência</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Plan4!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mais</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan4!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="314766640"/>
-        <c:axId val="314767200"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="314766640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Bloco</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314767200"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="314767200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Freqüência</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314766640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1358,11 +1141,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="386841520"/>
-        <c:axId val="386845440"/>
+        <c:axId val="351418960"/>
+        <c:axId val="389372512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="386841520"/>
+        <c:axId val="351418960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="386845440"/>
+        <c:crossAx val="389372512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1399,7 +1182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="386845440"/>
+        <c:axId val="389372512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1211,221 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="386841520"/>
+        <c:crossAx val="351418960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan4!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan4!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="351416160"/>
+        <c:axId val="351416720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="351416160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bloco</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="351416720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="351416720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="351416160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2218,6 +2215,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:A7">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2307,87 +2379,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A3:A7">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N502"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
